--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\VEP Shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9EF880-F124-4D7B-8D56-37CA95935F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4904A4E-03FE-41BD-A2EA-CB52F1243C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E71F0B7-454C-4120-926B-5F502A5DE84C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E71F0B7-454C-4120-926B-5F502A5DE84C}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Project:</t>
   </si>
@@ -129,9 +130,6 @@
     <t>Arduino</t>
   </si>
   <si>
-    <t>Cases</t>
-  </si>
-  <si>
     <t>PCBs</t>
   </si>
   <si>
@@ -190,6 +188,18 @@
   </si>
   <si>
     <t>TOTAL for Materials</t>
+  </si>
+  <si>
+    <t>3D-Printed PLA+ Case</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PLA+</t>
   </si>
 </sst>
 </file>
@@ -250,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,6 +279,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -584,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05708E9C-BE74-45EA-B18A-B30AFE4B0327}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +611,7 @@
     <col min="8" max="8" width="94" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -615,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -623,9 +635,9 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>19</v>
@@ -634,25 +646,12 @@
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -660,22 +659,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <f>B7*G9</f>
+        <f>B7*Links!E5</f>
         <v>14.99</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4">
-        <f>(11.99/1000)*75</f>
-        <v>0.8992500000000001</v>
-      </c>
-      <c r="G7" s="4">
-        <f>F7/10</f>
-        <v>8.9925000000000005E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -683,21 +671,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <f>B8*G8</f>
+        <f>B8*Links!E4</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4">
-        <f>F8/5</f>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -705,23 +683,11 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f>B9*G10</f>
+        <f>B9*Links!E6</f>
         <v>0.11453333333333333</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4">
-        <v>14.99</v>
-      </c>
-      <c r="G9" s="4">
-        <v>14.99</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -729,24 +695,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="5">
-        <f>B10*G11</f>
+        <f>B10*Links!E7</f>
         <v>2.1149999999999999E-2</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4">
-        <v>8.59</v>
-      </c>
-      <c r="G10" s="4">
-        <f>F10/75</f>
-        <v>0.11453333333333333</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -754,24 +707,11 @@
         <v>1</v>
       </c>
       <c r="C11" s="5">
-        <f>1*G11</f>
+        <f>1*Links!E7</f>
         <v>2.1149999999999999E-2</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4">
-        <v>12.69</v>
-      </c>
-      <c r="G11" s="4">
-        <f>F11/600</f>
-        <v>2.1149999999999999E-2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -779,24 +719,11 @@
         <v>1</v>
       </c>
       <c r="C12" s="5">
-        <f>B12*G12</f>
+        <f>B12*Links!E8</f>
         <v>0.44950000000000001</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4">
-        <v>8.99</v>
-      </c>
-      <c r="G12" s="4">
-        <f>F12/20</f>
-        <v>0.44950000000000001</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -804,24 +731,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="5">
-        <f>B13*G13</f>
+        <f>B13*Links!E9</f>
         <v>0.45750000000000002</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="4">
-        <v>9.15</v>
-      </c>
-      <c r="G13" s="4">
-        <f>F13/20</f>
-        <v>0.45750000000000002</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -829,24 +743,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="5">
-        <f>B14*G14</f>
+        <f>B14*Links!E10</f>
         <v>2.198E-2</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4">
-        <v>10.99</v>
-      </c>
-      <c r="G14" s="4">
-        <f>F14/1000</f>
-        <v>1.099E-2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -854,24 +755,11 @@
         <v>1</v>
       </c>
       <c r="C15" s="5">
-        <f>B15*G15</f>
+        <f>B15*Links!E11</f>
         <v>0.34950000000000003</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="4">
-        <v>6.99</v>
-      </c>
-      <c r="G15" s="4">
-        <f>F15/20</f>
-        <v>0.34950000000000003</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -879,24 +767,11 @@
         <v>1</v>
       </c>
       <c r="C16" s="5">
-        <f>B16*G16</f>
+        <f>B16*Links!E12</f>
         <v>0.24975</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4">
-        <v>9.99</v>
-      </c>
-      <c r="G16" s="4">
-        <f>F16/40</f>
-        <v>0.24975</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -904,24 +779,11 @@
         <v>5</v>
       </c>
       <c r="C17" s="5">
-        <f>B17*G17</f>
+        <f>B17*Links!E13</f>
         <v>3.2474999999999996</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="4">
-        <v>12.99</v>
-      </c>
-      <c r="G17" s="4">
-        <f>F17/20</f>
-        <v>0.64949999999999997</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -929,116 +791,452 @@
         <v>2</v>
       </c>
       <c r="C18" s="5">
-        <f>B18*G18</f>
+        <f>B18*Links!E14</f>
         <v>0.46633333333333332</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="4">
-        <v>13.99</v>
-      </c>
-      <c r="G18" s="4">
-        <f>F18/60</f>
-        <v>0.23316666666666666</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="5">
-        <f>B19*G19</f>
+        <f>B19*Links!E15</f>
         <v>2.198</v>
       </c>
-      <c r="E19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" s="4">
-        <v>10.99</v>
-      </c>
-      <c r="G19" s="5">
-        <f>F19/10</f>
-        <v>1.099</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="5">
-        <f>B20*G20</f>
+        <f>B20*Links!E16</f>
         <v>2.198</v>
       </c>
-      <c r="E20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="4">
-        <v>10.99</v>
-      </c>
-      <c r="G20" s="5">
-        <f>F20/10</f>
-        <v>1.099</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <f>B21*G21</f>
+        <f>B21*Links!E17</f>
         <v>1.998</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="4">
-        <v>9.99</v>
-      </c>
-      <c r="G21" s="5">
-        <f>F21/5</f>
-        <v>1.998</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="7">
-        <f>SUM(C7:C21)</f>
-        <v>31.382896666666664</v>
-      </c>
-      <c r="E23" s="6" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="7">
-        <f>SUM(F7:F21)</f>
-        <v>165.22925000000001</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <f>Links!E3</f>
+        <v>1.1990000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="7">
+        <f>SUM(C7:C22)</f>
+        <v>32.581896666666665</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683475AD-3EB4-4E74-A75E-950780F5F995}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="94" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3*C3</f>
+        <v>11.99</v>
+      </c>
+      <c r="E3" s="4">
+        <f>B3/10</f>
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D17" si="0">B4*C4</f>
+        <v>23</v>
+      </c>
+      <c r="E4" s="4">
+        <f>B4/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>74.95</v>
+      </c>
+      <c r="E5" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8.59</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>8.59</v>
+      </c>
+      <c r="E6" s="4">
+        <f>B6/75</f>
+        <v>0.11453333333333333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <v>12.69</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>12.69</v>
+      </c>
+      <c r="E7" s="4">
+        <f>B7/600</f>
+        <v>2.1149999999999999E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="E8" s="4">
+        <f>B8/20</f>
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9.15</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>9.15</v>
+      </c>
+      <c r="E9" s="4">
+        <f>B9/20</f>
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10.99</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>10.99</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10/1000</f>
+        <v>1.099E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6.99</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="E11" s="4">
+        <f>B11/20</f>
+        <v>0.34950000000000003</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9.99</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>9.99</v>
+      </c>
+      <c r="E12" s="4">
+        <f>B12/40</f>
+        <v>0.24975</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12.99</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>12.99</v>
+      </c>
+      <c r="E13" s="4">
+        <f>B13/20</f>
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>13.99</v>
+      </c>
+      <c r="E14" s="4">
+        <f>B14/60</f>
+        <v>0.23316666666666666</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10.99</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>10.99</v>
+      </c>
+      <c r="E15" s="5">
+        <f>B15/10</f>
+        <v>1.099</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10.99</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>10.99</v>
+      </c>
+      <c r="E16" s="5">
+        <f>B16/10</f>
+        <v>1.099</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9.99</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.99</v>
+      </c>
+      <c r="E17" s="5">
+        <f>B17/5</f>
+        <v>1.998</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
+        <f>SUM(D3:D17)</f>
+        <v>236.28000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>